--- a/price_excel/prdt_price_excel.xlsx
+++ b/price_excel/prdt_price_excel.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\원창훈\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12990" windowHeight="12720"/>
   </bookViews>
   <sheets>
-    <sheet name="스노우지" sheetId="1" r:id="rId1"/>
+    <sheet name="홍승현고급명함지" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>카테고리</t>
   </si>
   <si>
-    <t>김성민테스트명함</t>
+    <t>홍승현고급명함</t>
   </si>
   <si>
     <t>종이</t>
   </si>
   <si>
-    <t>-!스노우지!-!백색!200g</t>
+    <t>-!홍승현고급명함지!네츄럴!화이트!210g</t>
   </si>
   <si>
     <t>사이즈</t>
@@ -42,13 +37,19 @@
     <t>페이지</t>
   </si>
   <si>
-    <t>표지!2p!-</t>
+    <t>표지!2p!페이지_상세</t>
   </si>
   <si>
     <t>전면도수</t>
   </si>
   <si>
     <t>단면칼라4도</t>
+  </si>
+  <si>
+    <t>단면칼라4도+뒷면먹1도</t>
+  </si>
+  <si>
+    <t>양면칼라8도</t>
   </si>
   <si>
     <t>전면추가도수</t>
@@ -89,8 +90,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -312,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,40 +331,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -372,9 +375,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,203 +667,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="5" width="13" customWidth="1"/>
+    <col min="2" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>200</v>
       </c>
       <c r="B11" s="7">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C11" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="10">
         <f>((C11/100)*B11)+B11+D11</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>500</v>
-      </c>
-      <c r="B12" s="11">
+        <v>8000</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5500</v>
+      </c>
+      <c r="G11" s="9">
+        <v>100</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" ref="I11:I16" si="0">((G11/100)*F11)+F11+H11</f>
+        <v>11000</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5500</v>
+      </c>
+      <c r="K11" s="9">
+        <v>100</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12" s="7">
+        <v>5500</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ref="E12:E16" si="1">((C12/100)*B12)+B12+D12</f>
+        <v>11000</v>
+      </c>
+      <c r="F12" s="14">
+        <v>8200</v>
+      </c>
+      <c r="G12" s="15">
+        <v>100</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+      <c r="J12" s="18">
+        <v>8200</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>400</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7000</v>
+      </c>
+      <c r="C13" s="9">
+        <v>100</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="F13" s="14">
+        <v>11000</v>
+      </c>
+      <c r="G13" s="15">
+        <v>100</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="J13" s="18">
+        <v>11000</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>600</v>
+      </c>
+      <c r="B14" s="7">
         <v>10000</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <f>((C12/100)*B12)+B12+D12</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="F14" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G14" s="15">
+        <v>100</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="J14" s="18">
+        <v>15000</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>800</v>
+      </c>
+      <c r="B15" s="7">
+        <v>13000</v>
+      </c>
+      <c r="C15" s="9">
+        <v>100</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="1"/>
+        <v>26000</v>
+      </c>
+      <c r="F15" s="14">
+        <v>19000</v>
+      </c>
+      <c r="G15" s="15">
+        <v>100</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+      <c r="J15" s="18">
+        <v>19000</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>1000</v>
       </c>
-      <c r="B13" s="11">
-        <v>20000</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <f>((C13/100)*B13)+B13+D13</f>
-        <v>20000</v>
+      <c r="B16" s="7">
+        <v>16000</v>
+      </c>
+      <c r="C16" s="9">
+        <v>100</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+      <c r="F16" s="14">
+        <v>23000</v>
+      </c>
+      <c r="G16" s="15">
+        <v>100</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="0"/>
+        <v>46000</v>
+      </c>
+      <c r="J16" s="18">
+        <v>23000</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <v>46000</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="9">
+  <mergeCells count="27">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>